--- a/配置数据/MutiLanguageConfigs.xlsx
+++ b/配置数据/MutiLanguageConfigs.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="200">
   <si>
     <t>_id</t>
   </si>
@@ -215,7 +215,141 @@
     <t>Mira el anuncio completo</t>
   </si>
   <si>
-    <t>Chưa xem hết quảng cáo, không thể nhận phần thưởng.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a xem h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng cáo, không th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ưở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng.</t>
+    </r>
   </si>
   <si>
     <t>抽奖...</t>
@@ -293,13 +427,480 @@
     <t>签到</t>
   </si>
   <si>
-    <t>Sign-in</t>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>Masuk harian</t>
+  </si>
+  <si>
+    <t>Check-in</t>
+  </si>
+  <si>
+    <t>Registro diario</t>
+  </si>
+  <si>
+    <t>Điểm danh</t>
   </si>
   <si>
     <t>第{0}天</t>
   </si>
   <si>
     <t>Day {0}</t>
+  </si>
+  <si>
+    <t>Hari {0}</t>
+  </si>
+  <si>
+    <t>Dia {0}</t>
+  </si>
+  <si>
+    <t>Día {0}</t>
+  </si>
+  <si>
+    <t>Ngày {0}</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Màn chơi</t>
+  </si>
+  <si>
+    <t>电风扇</t>
+  </si>
+  <si>
+    <t>Electric Fan</t>
+  </si>
+  <si>
+    <t>Kipas listrik</t>
+  </si>
+  <si>
+    <t>Ventilador elétrico</t>
+  </si>
+  <si>
+    <t>Ventilador eléctrico</t>
+  </si>
+  <si>
+    <t>Quạt điện</t>
+  </si>
+  <si>
+    <t>吹散所有宝石</t>
+  </si>
+  <si>
+    <t>Blow all the gems</t>
+  </si>
+  <si>
+    <t>Tiup semua permata</t>
+  </si>
+  <si>
+    <t>Soprar todas as gemas</t>
+  </si>
+  <si>
+    <t>Sopla todas las gemas</t>
+  </si>
+  <si>
+    <t>Thổi bay tất cả đá quý</t>
+  </si>
+  <si>
+    <t>点击任意位置关闭</t>
+  </si>
+  <si>
+    <t>Tap anywhere to close</t>
+  </si>
+  <si>
+    <t>Ketuk di mana saja untuk tutup</t>
+  </si>
+  <si>
+    <t>Toque em qualquer lugar para fechar</t>
+  </si>
+  <si>
+    <t>Toca en cualquier lugar para cerrar</t>
+  </si>
+  <si>
+    <t>Chạm bất kỳ đâu để đóng</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Petunjuk</t>
+  </si>
+  <si>
+    <t>Dica</t>
+  </si>
+  <si>
+    <t>Pista</t>
+  </si>
+  <si>
+    <t>Gợi ý</t>
+  </si>
+  <si>
+    <t>金币不足，是否免费增加20颗宝石</t>
+  </si>
+  <si>
+    <t>Insufficient gold, add 20 gems for free?</t>
+  </si>
+  <si>
+    <t>Emas tidak cukup, tambah 20 permata gratis?</t>
+  </si>
+  <si>
+    <t>Ouro insuficiente, adicionar 20 gemas grátis?</t>
+  </si>
+  <si>
+    <t>Oro insuficiente, ¿añadir 20 gemas gratis?</t>
+  </si>
+  <si>
+    <t>Vàng không đủ, thêm 20 đá quý miễn phí?</t>
+  </si>
+  <si>
+    <t>增加{0}颗宝石可以大大提高通关率</t>
+  </si>
+  <si>
+    <t>Adding {0} gems greatly increases success rate</t>
+  </si>
+  <si>
+    <t>Menambah {0} permata meningkatkan peluang lulus</t>
+  </si>
+  <si>
+    <t>Adicionar {0} gemas aumenta muito a taxa de sucesso</t>
+  </si>
+  <si>
+    <t>Agregar {0} gemas aumenta mucho la tasa de éxito</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Thêm {0} đá quý s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tăng m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nh t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ỷ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>随机领取你的奖励！</t>
+  </si>
+  <si>
+    <t>Randomly claim your reward!</t>
+  </si>
+  <si>
+    <t>Klaim hadiah acakmu!</t>
+  </si>
+  <si>
+    <t>Receba sua recompensa aleatória!</t>
+  </si>
+  <si>
+    <t>¡Reclama tu recompensa al azar!</t>
+  </si>
+  <si>
+    <t>Nhận phần thưởng ngẫu nhiên!</t>
+  </si>
+  <si>
+    <t>你要继续游戏吗？</t>
+  </si>
+  <si>
+    <t>Do you want to continue?</t>
+  </si>
+  <si>
+    <t>Mau lanjut main?</t>
+  </si>
+  <si>
+    <t>Quer continuar?</t>
+  </si>
+  <si>
+    <t>¿Quieres continuar?</t>
+  </si>
+  <si>
+    <t>Bạn có muốn tiếp tục không?</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Bantuan</t>
+  </si>
+  <si>
+    <t>Ajuda</t>
+  </si>
+  <si>
+    <t>Ayuda</t>
+  </si>
+  <si>
+    <t>Trợ giúp</t>
+  </si>
+  <si>
+    <t>刮开并匹配3 X</t>
+  </si>
+  <si>
+    <t>Scratch and match 3 X</t>
+  </si>
+  <si>
+    <t>Gosok dan cocokkan 3 X</t>
+  </si>
+  <si>
+    <t>Raspe e combine 3 X</t>
+  </si>
+  <si>
+    <t>Rasca y combina 3 X</t>
+  </si>
+  <si>
+    <t>Cào và ghép 3 X</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Pengaturan</t>
+  </si>
+  <si>
+    <t>Configurações</t>
+  </si>
+  <si>
+    <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
+  </si>
+  <si>
+    <t>已解锁</t>
+  </si>
+  <si>
+    <t>Unlocked</t>
+  </si>
+  <si>
+    <t>Terbuka</t>
+  </si>
+  <si>
+    <t>Desbloqueado</t>
+  </si>
+  <si>
+    <t>Đã mở khóa</t>
+  </si>
+  <si>
+    <t>未解锁</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Terkunci</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t>Chưa mở khóa</t>
+  </si>
+  <si>
+    <t>剩余宝石</t>
+  </si>
+  <si>
+    <t>Remaining Gems</t>
+  </si>
+  <si>
+    <t>Sisa Permata</t>
+  </si>
+  <si>
+    <t>Gemas Restantes</t>
+  </si>
+  <si>
+    <t>Gemas restantes</t>
+  </si>
+  <si>
+    <t>Đá quý còn lại</t>
+  </si>
+  <si>
+    <t>奖励分数</t>
+  </si>
+  <si>
+    <t>Reward Score</t>
+  </si>
+  <si>
+    <t>Skor Hadiah</t>
+  </si>
+  <si>
+    <t>Pontuação de Recompensa</t>
+  </si>
+  <si>
+    <t>Puntuación de recompensa</t>
+  </si>
+  <si>
+    <t>Điểm thưởng</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Skor</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Puntos</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Jeda</t>
+  </si>
+  <si>
+    <t>Pausa</t>
+  </si>
+  <si>
+    <t>Tạm dừng</t>
   </si>
   <si>
     <t>TableName: "MutiLanguageConfigs" Package: "table"</t>
@@ -357,7 +958,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -396,12 +997,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -555,6 +1156,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1109,7 +1716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,10 +2128,10 @@
   <sheetPr/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.4"/>
@@ -1534,7 +2141,7 @@
     <col min="3" max="3" width="27.1111111111111" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.0092592592593" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.5925925925926" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="4" customWidth="1"/>
     <col min="7" max="7" width="63.4907407407407" style="7" customWidth="1"/>
     <col min="8" max="8" width="8.12962962962963" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.8703703703704" style="4" customWidth="1"/>
@@ -1698,7 +2305,7 @@
       <c r="F6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="12"/>
@@ -1813,16 +2420,24 @@
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1832,255 +2447,543 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="12">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="12">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="12">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="12">
+        <v>22</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="12">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="12">
+        <v>24</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
     <row r="29" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="12">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
     <row r="30" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
     <row r="31" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2594,7 +3497,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2605,48 +3508,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/配置数据/MutiLanguageConfigs.xlsx
+++ b/配置数据/MutiLanguageConfigs.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
   <si>
     <t>_id</t>
   </si>
@@ -901,6 +901,24 @@
   </si>
   <si>
     <t>Tạm dừng</t>
+  </si>
+  <si>
+    <t>增加20颗宝石可以大大提高通关率</t>
+  </si>
+  <si>
+    <t>Adding 20 gems greatly boosts pass rate</t>
+  </si>
+  <si>
+    <t>Tambah 20 permata tingkatkan peluang</t>
+  </si>
+  <si>
+    <t>Adicionar 20 gemas aumenta chance</t>
+  </si>
+  <si>
+    <t>Añadir 20 gemas mejora mucho</t>
+  </si>
+  <si>
+    <t>Thêm 20 ngọc tăng tỷ lệ qua màn</t>
   </si>
   <si>
     <t>TableName: "MutiLanguageConfigs" Package: "table"</t>
@@ -2129,16 +2147,16 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="8.44444444444444" style="4" customWidth="1"/>
     <col min="2" max="2" width="57.787037037037" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.1111111111111" style="7" customWidth="1"/>
+    <col min="3" max="3" width="69.8425925925926" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.0092592592593" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.5925925925926" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.1111111111111" style="4" customWidth="1"/>
@@ -2989,13 +3007,27 @@
       <c r="J32" s="12"/>
     </row>
     <row r="33" s="5" customFormat="1" ht="19.2" spans="1:10">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="12">
+        <v>29</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -3497,7 +3529,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3508,48 +3540,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/配置数据/MutiLanguageConfigs.xlsx
+++ b/配置数据/MutiLanguageConfigs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="589"/>
+    <workbookView windowHeight="17680" tabRatio="589"/>
   </bookViews>
   <sheets>
     <sheet name="MutiLanguageConfigs" sheetId="1" r:id="rId1"/>
@@ -547,22 +547,60 @@
     <t>Gợi ý</t>
   </si>
   <si>
-    <t>金币不足，是否免费增加20颗宝石</t>
-  </si>
-  <si>
-    <t>Insufficient gold, add 20 gems for free?</t>
-  </si>
-  <si>
-    <t>Emas tidak cukup, tambah 20 permata gratis?</t>
-  </si>
-  <si>
-    <t>Ouro insuficiente, adicionar 20 gemas grátis?</t>
-  </si>
-  <si>
-    <t>Oro insuficiente, ¿añadir 20 gemas gratis?</t>
-  </si>
-  <si>
-    <t>Vàng không đủ, thêm 20 đá quý miễn phí?</t>
+    <t>金币不足，是否免费增加{0}颗宝石</t>
+  </si>
+  <si>
+    <t>Insufficient gold, add {0} gems for free?</t>
+  </si>
+  <si>
+    <t>Emas tidak cukup, tambah {0} permata gratis?</t>
+  </si>
+  <si>
+    <t>Ouro insuficiente, adicionar {0} gemas grátis?</t>
+  </si>
+  <si>
+    <t>Oro insuficiente, ¿añadir {0} gemas gratis?</t>
+  </si>
+  <si>
+    <r>
+      <t>Vàng không đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, thêm {0} đá quý mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n phí?</t>
+    </r>
   </si>
   <si>
     <t>增加{0}颗宝石可以大大提高通关率</t>
@@ -2146,24 +2184,24 @@
   <sheetPr/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.44444444444444" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.787037037037" style="5" customWidth="1"/>
-    <col min="3" max="3" width="69.8425925925926" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.0092592592593" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5925925925926" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="63.4907407407407" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.12962962962963" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.8703703703704" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.1296296296296" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.44545454545455" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.7909090909091" style="5" customWidth="1"/>
+    <col min="3" max="3" width="69.8454545454545" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.0090909090909" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5909090909091" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" style="4" customWidth="1"/>
+    <col min="7" max="7" width="63.4909090909091" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.12727272727273" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.8727272727273" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.1272727272727" style="4" customWidth="1"/>
     <col min="11" max="11" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="0" style="4" hidden="1"/>
   </cols>
@@ -2246,7 +2284,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" s="4" customFormat="1" ht="52.2" spans="1:10">
+    <row r="4" s="4" customFormat="1" ht="49.5" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2278,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="5" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -2304,7 +2342,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="6" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2330,7 +2368,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="7" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2356,7 +2394,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="8" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2382,7 +2420,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="9" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2408,7 +2446,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="10" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2434,7 +2472,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="11" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2460,7 +2498,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="12" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2486,7 +2524,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="13" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -2512,7 +2550,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="14" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2538,7 +2576,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="15" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -2564,7 +2602,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="16" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2590,7 +2628,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="17" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -2616,7 +2654,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="18" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -2635,14 +2673,14 @@
       <c r="F18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="19" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -2668,7 +2706,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="20" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -2694,7 +2732,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="21" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -2720,7 +2758,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="22" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -2746,7 +2784,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="23" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -2772,7 +2810,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="24" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -2798,7 +2836,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="25" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -2824,7 +2862,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="26" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -2850,7 +2888,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="27" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -2876,7 +2914,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="28" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -2902,7 +2940,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="29" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -2928,7 +2966,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="30" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -2954,7 +2992,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="31" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -2980,7 +3018,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="32" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -3006,7 +3044,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="33" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -3032,7 +3070,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="34" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3044,7 +3082,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="35" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3056,7 +3094,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" s="5" customFormat="1" ht="19.2" spans="1:10">
+    <row r="36" s="5" customFormat="1" ht="17.5" spans="1:10">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3515,15 +3553,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="43.3703703703704" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1018518518519" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8981481481481" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.3727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="43.4537037037037" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.4545454545455" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
